--- a/config/factorPools.xlsx
+++ b/config/factorPools.xlsx
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -3995,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5960,7 +5960,7 @@
         <v>53</v>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>53</v>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>70</v>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="b">
         <v>0</v>
@@ -8994,7 +8994,7 @@
         <v>70</v>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="b">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>70</v>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>70</v>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -9117,7 +9117,7 @@
         <v>70</v>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
@@ -9158,7 +9158,7 @@
         <v>70</v>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>71</v>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>71</v>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>73</v>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="b">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>73</v>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>73</v>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>73</v>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>73</v>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>73</v>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -9773,7 +9773,7 @@
         <v>73</v>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>73</v>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="b">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>73</v>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="b">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>73</v>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -10268,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="C235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="C237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -10719,7 +10719,7 @@
         <v>1</v>
       </c>
       <c r="C239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -10760,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -10880,7 +10880,7 @@
         <v>80</v>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="b">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>80</v>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
@@ -10962,7 +10962,7 @@
         <v>80</v>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="b">
         <v>0</v>
@@ -11003,7 +11003,7 @@
         <v>80</v>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
@@ -11044,7 +11044,7 @@
         <v>80</v>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="b">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>80</v>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
@@ -11413,7 +11413,7 @@
         <v>83</v>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="b">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>83</v>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="b">
         <v>0</v>
@@ -12236,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="C276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276">
         <v>3</v>
@@ -12277,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -12318,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="C278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -12400,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="C280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="C281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -12479,7 +12479,7 @@
         <v>90</v>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="b">
         <v>0</v>
@@ -12520,7 +12520,7 @@
         <v>90</v>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="b">
         <v>0</v>
@@ -12561,7 +12561,7 @@
         <v>90</v>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="b">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>90</v>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="b">
         <v>0</v>
@@ -12643,7 +12643,7 @@
         <v>90</v>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="b">
         <v>0</v>
@@ -12684,7 +12684,7 @@
         <v>90</v>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="b">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="C304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="C305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -13466,7 +13466,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -13507,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -13832,7 +13832,7 @@
         <v>98</v>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="b">
         <v>0</v>
@@ -13873,7 +13873,7 @@
         <v>98</v>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="b">
         <v>0</v>
